--- a/Apollo247/src/test/resources/ExcelReader/ExcelData.xlsx
+++ b/Apollo247/src/test/resources/ExcelReader/ExcelData.xlsx
@@ -8,40 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\JAVA\Apollo 24by7\Apollo247\src\test\resources\ExcelReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD382B67-0D92-4D32-A921-8049E971D960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC220F5-2795-459C-ABC4-E69D86866317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{C0FB0D44-66A3-4A10-8934-1D3F1F07E3C2}"/>
+    <workbookView xWindow="4020" yWindow="3110" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{C0FB0D44-66A3-4A10-8934-1D3F1F07E3C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>0-5</t>
   </si>
   <si>
     <t>Hospital Visit</t>
+  </si>
+  <si>
+    <t>Dr Sharma</t>
+  </si>
+  <si>
+    <t>Dr Varma</t>
   </si>
 </sst>
 </file>
@@ -82,9 +78,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11492554-F078-4811-B514-0A9EB6FC70EC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -441,4 +440,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26979E52-73AB-4E0F-AAAF-61B5A012CD2E}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>